--- a/Documents/Food Items to Search.xlsx
+++ b/Documents/Food Items to Search.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Desktop\d3 project\D3Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\project 3\D3Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F6E81C-BBE8-41B8-8ED5-40E82EF95BAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE9C184-DBA4-4FCE-99E2-DF75A796CCB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="163">
   <si>
     <t>Pork</t>
   </si>
@@ -281,13 +281,247 @@
   </si>
   <si>
     <t>Sausage Sandwich</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Margerine</t>
+  </si>
+  <si>
+    <t>Fat spread</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>Soy Yogurt</t>
+  </si>
+  <si>
+    <t>Beef Jerky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pork Jerky </t>
+  </si>
+  <si>
+    <t>Chicken Jerky</t>
+  </si>
+  <si>
+    <t>Whey Protein Isolate</t>
+  </si>
+  <si>
+    <t>Soy Protein Isolate</t>
+  </si>
+  <si>
+    <t>Seitan</t>
+  </si>
+  <si>
+    <t>Jerky</t>
+  </si>
+  <si>
+    <t>Pea Protein Isolate</t>
+  </si>
+  <si>
+    <t>Protein Powder</t>
+  </si>
+  <si>
+    <t>Chocolate Milk</t>
+  </si>
+  <si>
+    <t>Chocolate Soy Milk</t>
+  </si>
+  <si>
+    <t>Swiss Cheese</t>
+  </si>
+  <si>
+    <t>Gouda Cheese</t>
+  </si>
+  <si>
+    <t>Cream Cheese</t>
+  </si>
+  <si>
+    <t>Vegan Cheese Pizza</t>
+  </si>
+  <si>
+    <t>Seitan Jerky</t>
+  </si>
+  <si>
+    <t>Soy Jerky</t>
+  </si>
+  <si>
+    <t>Vegan egg</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Almond Cream Cheese</t>
+  </si>
+  <si>
+    <t>Chao Slices</t>
+  </si>
+  <si>
+    <t>Soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegan Minestrone </t>
+  </si>
+  <si>
+    <t>Vegan Butternut Soup</t>
+  </si>
+  <si>
+    <t>Vegan Tortilla Soup</t>
+  </si>
+  <si>
+    <t>Minestrone</t>
+  </si>
+  <si>
+    <t>Vegan Lentil Soup</t>
+  </si>
+  <si>
+    <t>Lentil Soup with Ham</t>
+  </si>
+  <si>
+    <t>Tortilla Soup</t>
+  </si>
+  <si>
+    <t>Chicken Noodle Soup</t>
+  </si>
+  <si>
+    <t>Miso Soup</t>
+  </si>
+  <si>
+    <t>Vegan Blueberry Muffin</t>
+  </si>
+  <si>
+    <t>Muffin</t>
+  </si>
+  <si>
+    <t>Blueberry Muffin</t>
+  </si>
+  <si>
+    <t>Peanut butter and Jelly</t>
+  </si>
+  <si>
+    <t>Vanilla Shake</t>
+  </si>
+  <si>
+    <t>Rice Shake</t>
+  </si>
+  <si>
+    <t>Milkshake</t>
+  </si>
+  <si>
+    <t>Vegan Frittata</t>
+  </si>
+  <si>
+    <t>Southwestern Frittata</t>
+  </si>
+  <si>
+    <t>Frittata</t>
+  </si>
+  <si>
+    <t>Vegan Mac and Cheese</t>
+  </si>
+  <si>
+    <t>Mac and Cheese</t>
+  </si>
+  <si>
+    <t>Rice and Soy Burger</t>
+  </si>
+  <si>
+    <t>Vegan Coffee Gelato</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Coffee Ice Cream</t>
+  </si>
+  <si>
+    <t>Vegan Brownie</t>
+  </si>
+  <si>
+    <t>Brownies</t>
+  </si>
+  <si>
+    <t>Scallops</t>
+  </si>
+  <si>
+    <t>Breaded Scallops</t>
+  </si>
+  <si>
+    <t>Vegan Breaded Scallops</t>
+  </si>
+  <si>
+    <t>Vegan Lasagna</t>
+  </si>
+  <si>
+    <t>Lasagna</t>
+  </si>
+  <si>
+    <t>Vegan Ravioli</t>
+  </si>
+  <si>
+    <t>Ravioli</t>
+  </si>
+  <si>
+    <t>Quorn Chik'n Cutlet</t>
+  </si>
+  <si>
+    <t>Quorn</t>
+  </si>
+  <si>
+    <t>Vegan Parmesian</t>
+  </si>
+  <si>
+    <t>Parmesian Cheese</t>
+  </si>
+  <si>
+    <t>Veggie Breakfast Sandwich</t>
+  </si>
+  <si>
+    <t>Breakfast Sandwich</t>
+  </si>
+  <si>
+    <t>Big Burly Breakfast Sandwich</t>
+  </si>
+  <si>
+    <t>Gravy</t>
+  </si>
+  <si>
+    <t>Vegan Mushroom Gravy</t>
+  </si>
+  <si>
+    <t>Turkey Gravy</t>
+  </si>
+  <si>
+    <t>Vegan Molten Cake</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Molton Chocolate Cake</t>
+  </si>
+  <si>
+    <t>Vegan Dumplings</t>
+  </si>
+  <si>
+    <t>Dumplings</t>
+  </si>
+  <si>
+    <t>Beef Dumplings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +552,28 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,10 +592,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,8 +609,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,16 +1058,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3D6035-F38A-4635-AAE6-4F103C45BDBC}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -943,62 +1210,52 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="4">
-        <v>337971</v>
-      </c>
+      <c r="A9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4">
-        <v>339408</v>
+        <v>134</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45359821</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4">
-        <v>338029</v>
+        <v>147</v>
+      </c>
+      <c r="B11">
+        <v>45203114</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4">
-        <v>338010</v>
+        <v>337971</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1007,18 +1264,18 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
-        <v>169888</v>
+        <v>339408</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1029,78 +1286,78 @@
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4">
-        <v>566677</v>
+        <v>338029</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4">
-        <v>339401</v>
+        <v>338010</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4">
-        <v>337442</v>
+        <v>169888</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4">
-        <v>337449</v>
+        <v>566677</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4">
-        <v>337448</v>
+        <v>339401</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
@@ -1109,66 +1366,66 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4">
-        <v>336070</v>
+        <v>337442</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4">
-        <v>336106</v>
+        <v>337449</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4">
-        <v>336110</v>
+        <v>337448</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>336099</v>
+        <v>336070</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1177,243 +1434,239 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B23" s="4">
-        <v>548094</v>
+        <v>336106</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4">
-        <v>343895</v>
+        <v>336110</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B25" s="4">
-        <v>343894</v>
+        <v>336099</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="4">
-        <v>336979</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B26" s="4"/>
       <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="4">
-        <v>339396</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4">
-        <v>336874</v>
+        <v>548094</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B29" s="4">
-        <v>337395</v>
+        <v>343895</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B30" s="4">
-        <v>340893</v>
+        <v>343894</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B31" s="4">
-        <v>340921</v>
+        <v>336979</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="4">
+        <v>339396</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4">
+        <v>336874</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4">
+        <v>337395</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="4">
+        <v>340893</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="4">
+        <v>340921</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="8">
+        <v>45095445</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B38" s="4">
         <v>342589</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="4">
-        <v>336797</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="4">
-        <v>339149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="4">
-        <v>339127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="4">
-        <v>338617</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="4">
-        <v>338664</v>
-      </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="4">
-        <v>338717</v>
       </c>
       <c r="C38" t="s">
         <v>77</v>
@@ -1422,8 +1675,742 @@
         <v>30</v>
       </c>
     </row>
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="4">
+        <v>336797</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="4">
+        <v>339149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="4">
+        <v>339127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="4">
+        <v>338617</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="4">
+        <v>338664</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="4">
+        <v>338717</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="8">
+        <v>45330877</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="8">
+        <v>45019104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="8">
+        <v>45136069</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1040</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60">
+        <v>1022</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="8">
+        <v>1017</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="8">
+        <v>1032</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63">
+        <v>45169773</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64">
+        <v>45079769</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="8">
+        <v>45087403</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66">
+        <v>45346988</v>
+      </c>
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="8">
+        <v>45087953</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="8">
+        <v>45081054</v>
+      </c>
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="8">
+        <v>45316855</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="8">
+        <v>45032323</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="9">
+        <v>6039</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="10">
+        <v>6037</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="9">
+        <v>45195858</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="8">
+        <v>6062</v>
+      </c>
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="8">
+        <v>45089171</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="8">
+        <v>45288217</v>
+      </c>
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="8">
+        <v>45213366</v>
+      </c>
+      <c r="C78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="8">
+        <v>1111</v>
+      </c>
+      <c r="C79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="8">
+        <v>45240467</v>
+      </c>
+      <c r="C80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="8">
+        <v>45327109</v>
+      </c>
+      <c r="C81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="8">
+        <v>45364398</v>
+      </c>
+      <c r="C82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="7">
+        <v>45220649</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="7">
+        <v>45330908</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="7">
+        <v>45344692</v>
+      </c>
+      <c r="C85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="8">
+        <v>45080263</v>
+      </c>
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="8">
+        <v>45180426</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="8">
+        <v>18151</v>
+      </c>
+      <c r="C88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="8">
+        <v>45269281</v>
+      </c>
+      <c r="C89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="8">
+        <v>45220743</v>
+      </c>
+      <c r="C90" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="8">
+        <v>45170154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="7">
+        <v>32019</v>
+      </c>
+      <c r="C92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="7">
+        <v>45190188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="8">
+        <v>22899</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" s="7">
+        <v>45062239</v>
+      </c>
+      <c r="C95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" s="8">
+        <v>45361332</v>
+      </c>
+      <c r="C96" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="8">
+        <v>45270442</v>
+      </c>
+      <c r="C97" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="7">
+        <v>6126</v>
+      </c>
+      <c r="C98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="8">
+        <v>45025026</v>
+      </c>
+      <c r="C99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="8">
+        <v>45171846</v>
+      </c>
+      <c r="C100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="8">
+        <v>45220691</v>
+      </c>
+      <c r="C101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="8">
+        <v>45200076</v>
+      </c>
+      <c r="C102" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B59" r:id="rId1" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/01040?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=cheese&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{127FCF46-9DE5-49AF-AA5E-4799A9ABF8F9}"/>
+    <hyperlink ref="B61" r:id="rId2" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/01017?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=cheese&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{E6E87593-9D12-4CC2-A888-299F867D9BC1}"/>
+    <hyperlink ref="A37" r:id="rId3" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45095445?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan+cheese&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{8372967F-DB69-42F2-B0EF-1561C8B08D05}"/>
+    <hyperlink ref="B37" r:id="rId4" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45095445?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan+cheese&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{DC5A80CE-C91D-4A8D-8D58-975F4ABF8365}"/>
+    <hyperlink ref="B54" r:id="rId5" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45019104?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=25&amp;sort=default&amp;order=asc&amp;qlookup=vegan+cheese&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{0E7D1D1E-807E-491C-A93B-1842D911ACF9}"/>
+    <hyperlink ref="B55" r:id="rId6" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45136069?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=25&amp;sort=default&amp;order=asc&amp;qlookup=vegan+cheese&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{F5DD626E-3761-4665-919E-843A7FEEE3B6}"/>
+    <hyperlink ref="B68" r:id="rId7" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45087953?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan+soup&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{B43FB8F4-5C9C-4FC6-B0B3-AFC63B32DD34}"/>
+    <hyperlink ref="B69" r:id="rId8" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45081054?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan+soup&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{D2013F2F-50D5-4CB3-885C-7BCA93212B4B}"/>
+    <hyperlink ref="B70" r:id="rId9" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45316855?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan+soup&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{0AED9BE4-21F9-4BEF-A129-09BEBA1AD012}"/>
+    <hyperlink ref="B71" r:id="rId10" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45032323?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan+soup&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{C66E44E5-E395-4FEB-AA24-78CA0C155D47}"/>
+    <hyperlink ref="B73" r:id="rId11" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/06037?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=lentil+soup&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{790FBA10-9477-4BB9-B07A-AFE64BE1DAFD}"/>
+    <hyperlink ref="B75" r:id="rId12" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/06062?fgcd=&amp;manu=Campbell+Soup+Co.&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=fd_s&amp;order=asc&amp;qlookup=&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{F7681A65-C250-48D2-91DA-FF7BA7D86DE1}"/>
+    <hyperlink ref="B76" r:id="rId13" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45089171?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=miso+soup&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{E2E00DF4-4C47-40D4-9D8E-2D8574A2E6F6}"/>
+    <hyperlink ref="B77" r:id="rId14" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45288217?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan+cookies&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{40D932E3-8A41-48AF-8E18-A113287BAF8C}"/>
+    <hyperlink ref="B78" r:id="rId15" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45213366?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=blueberry+muffin&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{7D3593A0-73FA-4A45-8B4B-A62F96E8FAA9}"/>
+    <hyperlink ref="B45" r:id="rId16" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45330877?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=peanut+butter+and+jelly+sandwich&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{720679C5-B08D-4A53-9E55-B6ED2764F0AD}"/>
+    <hyperlink ref="B79" r:id="rId17" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/01111?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan+shake&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{230B3BF2-D422-4BAD-B606-EB8225802D71}"/>
+    <hyperlink ref="B80" r:id="rId18" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45240467?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan+shake&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{809CDC0B-CD48-4540-AB1C-937F3D55B7BB}"/>
+    <hyperlink ref="B82" r:id="rId19" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45364398?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=frittata&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{8A60D8F0-AD63-4638-B376-684A2921F017}"/>
+    <hyperlink ref="B81" r:id="rId20" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45327109?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=frittata&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{E8B5A1C8-243D-43BA-98E0-67C567344376}"/>
+    <hyperlink ref="B83" r:id="rId21" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45220649?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=VEGAN+MAC+%27N+CHEESE%2C+UPC%3A+648912001090&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{78ED23A5-EB1C-45B2-9A14-2A74A70E6593}"/>
+    <hyperlink ref="B84" r:id="rId22" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45330908?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=mac+and+cheese&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{C64327A3-5503-4D76-9DB3-BD9F4CE10D2E}"/>
+    <hyperlink ref="B10" r:id="rId23" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45359821?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{96FEBA2A-DEA1-494A-986A-7F966CF368F7}"/>
+    <hyperlink ref="B85" r:id="rId24" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45344692?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=25&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{97AAABDC-A271-44D7-956F-27419B455EF1}"/>
+    <hyperlink ref="B86" r:id="rId25" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45080263?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=coffee+ice+cream&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{86F25258-2249-4B3C-A638-60162EC71A36}"/>
+    <hyperlink ref="B87" r:id="rId26" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45180426?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=25&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{0A0D0F23-1E9D-4298-AB94-BC1333E2D71F}"/>
+    <hyperlink ref="B88" r:id="rId27" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/18151?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=brownie&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{6A1CC8E9-3AB7-4067-B7CC-DCD0C9427D8C}"/>
+    <hyperlink ref="B89" r:id="rId28" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45269281?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=50&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{4FC5ADF8-1A96-4EBB-B13A-CBD6F861DB11}"/>
+    <hyperlink ref="B90" r:id="rId29" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45220743?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=breaded+scallops&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{4A9E15C4-DC2D-4E04-B478-58C05520A50A}"/>
+    <hyperlink ref="B91" r:id="rId30" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45170154?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=50&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{48255B22-CDA7-4FC3-AA7C-910057F1A017}"/>
+    <hyperlink ref="B92" r:id="rId31" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/32019?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=lasagna&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{56B21292-7CDA-42D7-BBB9-325DA6B8F686}"/>
+    <hyperlink ref="B93" r:id="rId32" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45190188?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=50&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{65C7C383-BC03-4C61-9900-3B5BFD4D9546}"/>
+    <hyperlink ref="B94" r:id="rId33" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/22899?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=ravioli&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{EAD548A3-D3AE-463A-AA4B-0E23BB1B00F6}"/>
+    <hyperlink ref="B65" r:id="rId34" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45087403?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=50&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{97CF1B32-1CC2-4278-9AE1-0A2CD948E5AD}"/>
+    <hyperlink ref="B62" r:id="rId35" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/01032?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=parmesan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{5A3F88B5-80E3-4121-A36D-98842528AEAD}"/>
+    <hyperlink ref="B95" r:id="rId36" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45062239?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=50&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{B3A8E027-DBAF-48B3-A100-5980AA6477A4}"/>
+    <hyperlink ref="B96" r:id="rId37" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45361332?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=breakfast+sandwich&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{0763663D-4C25-449F-AB0C-D53721E076A2}"/>
+    <hyperlink ref="B97" r:id="rId38" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45270442?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=50&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{6ABB24D4-5FCF-4A9A-91FF-F5AE3AB2C8A4}"/>
+    <hyperlink ref="B98" r:id="rId39" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/06126?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=gravy&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{F1153DEB-799E-4A7F-A871-12843D469CE4}"/>
+    <hyperlink ref="B99" r:id="rId40" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45025026?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=50&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{8C3F8F1C-5B7E-4E98-B16A-8D31F41D1E60}"/>
+    <hyperlink ref="B100" r:id="rId41" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45171846?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=molten+cake&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{BCE2AD25-AA86-42EB-A22B-3A95FE7648DD}"/>
+    <hyperlink ref="B101" r:id="rId42" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45220691?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=75&amp;sort=default&amp;order=asc&amp;qlookup=vegan&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{BE5FD9A2-7BB5-4832-BBA9-0FE3B41A6590}"/>
+    <hyperlink ref="B102" r:id="rId43" tooltip="Click to view reports for this food" display="https://ndb.nal.usda.gov/ndb/foods/show/45200076?fgcd=&amp;manu=&amp;format=&amp;count=&amp;max=25&amp;offset=&amp;sort=default&amp;order=asc&amp;qlookup=dumplings&amp;ds=&amp;qt=&amp;qp=&amp;qa=&amp;qn=&amp;q=&amp;ing=" xr:uid="{A20E1D0D-0F2F-4AD7-A559-B4DBF499B7E1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>